--- a/weixin/order/qunliaoOrder.xlsx
+++ b/weixin/order/qunliaoOrder.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>商品</t>
   </si>
@@ -39,6 +39,27 @@
   </si>
   <si>
     <t>种类</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>孙敬祥</t>
+  </si>
+  <si>
+    <t>18201097617</t>
+  </si>
+  <si>
+    <t>山东德州</t>
+  </si>
+  <si>
+    <t>15:50:47 2019-01-30</t>
+  </si>
+  <si>
+    <t>15:50:44 2019-01-30</t>
+  </si>
+  <si>
+    <t>15:50:37 2019-01-30</t>
   </si>
   <si>
     <t>白米</t>
@@ -401,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -458,114 +479,180 @@
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="n">
-        <v>99</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8"/>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8"/>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>55</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="n">
-        <v>129</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-    </row>
-    <row r="6" spans="1:8"/>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8"/>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>129</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>300</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8"/>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>129</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
         <v>300</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>

--- a/weixin/order/qunliaoOrder.xlsx
+++ b/weixin/order/qunliaoOrder.xlsx
@@ -2,20 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12885" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
   <si>
     <t>商品</t>
   </si>
@@ -26,55 +34,70 @@
     <t>数量</t>
   </si>
   <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>地址</t>
+    <t>项目数</t>
   </si>
   <si>
     <t>日期</t>
   </si>
   <si>
-    <t>种类</t>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>孙敬祥</t>
+  </si>
+  <si>
+    <t>18201097617</t>
+  </si>
+  <si>
+    <t>山东德州</t>
   </si>
   <si>
     <t>鞋子</t>
   </si>
   <si>
-    <t>孙敬祥</t>
-  </si>
-  <si>
-    <t>18201097617</t>
-  </si>
-  <si>
-    <t>山东德州</t>
-  </si>
-  <si>
-    <t>15:50:47 2019-01-30</t>
-  </si>
-  <si>
-    <t>15:50:44 2019-01-30</t>
-  </si>
-  <si>
-    <t>15:50:37 2019-01-30</t>
+    <t>16:37:19 2019-01-31</t>
+  </si>
+  <si>
+    <t>青年</t>
+  </si>
+  <si>
+    <t>16:37:15 2019-01-31</t>
+  </si>
+  <si>
+    <t>16:37:12 2019-01-31</t>
+  </si>
+  <si>
+    <t>16:29:50 2019-01-31</t>
+  </si>
+  <si>
+    <t>.soul</t>
+  </si>
+  <si>
+    <t>16:29:46 2019-01-31</t>
+  </si>
+  <si>
+    <t>16:29:42 2019-01-31</t>
+  </si>
+  <si>
+    <t>15:32:18 2019-01-31</t>
+  </si>
+  <si>
+    <t>15:32:15 2019-01-31</t>
+  </si>
+  <si>
+    <t>冯颖</t>
+  </si>
+  <si>
+    <t>18363250105</t>
+  </si>
+  <si>
+    <t>山东德州黄河涯镇</t>
   </si>
   <si>
     <t>白米</t>
   </si>
   <si>
-    <t>冯颖</t>
-  </si>
-  <si>
-    <t>18363250105</t>
-  </si>
-  <si>
-    <t>山东德州黄河涯镇</t>
-  </si>
-  <si>
-    <t>14:31:35 2019-01-30</t>
+    <t>14:49:03 2019-01-31</t>
   </si>
   <si>
     <t>口红</t>
@@ -84,9 +107,6 @@
   </si>
   <si>
     <t>28天</t>
-  </si>
-  <si>
-    <t>14:31:31 2019-01-30</t>
   </si>
 </sst>
 </file>
@@ -94,24 +114,69 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="6">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,15 +184,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="4">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="20" name="输入" xfId="1"/>
+    <cellStyle builtinId="10" name="注释" xfId="2"/>
+    <cellStyle builtinId="10" hidden="0" name="Note" xfId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -422,241 +527,365 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row customHeight="1" ht="14.25" r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row customHeight="1" ht="14.25" r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" spans="1:9"/>
+    <row customHeight="1" ht="14.25" r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8"/>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="E4" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5" spans="1:9"/>
+    <row customHeight="1" ht="14.25" r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8"/>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7" spans="1:9"/>
+    <row customHeight="1" ht="14.25" r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="9" spans="1:9"/>
+    <row customHeight="1" ht="14.25" r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="11" spans="1:9"/>
+    <row customHeight="1" ht="14.25" r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="13" spans="1:9"/>
+    <row customHeight="1" ht="14.25" r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8"/>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
+    </row>
+    <row customHeight="1" ht="14.25" r="15" spans="1:9"/>
+    <row customHeight="1" ht="14.25" r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="17" spans="1:9"/>
+    <row customHeight="1" ht="14.25" r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="F18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="19" spans="1:9">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="20" spans="1:9">
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F20" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="21" spans="1:9">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8"/>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>200</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="n">
-        <v>99</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="n">
-        <v>129</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>300</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
+      <c r="F21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/weixin/order/qunliaoOrder.xlsx
+++ b/weixin/order/qunliaoOrder.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12885" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>客户</t>
   </si>
@@ -43,70 +44,37 @@
     <t>账号</t>
   </si>
   <si>
-    <t>孙敬祥</t>
-  </si>
-  <si>
-    <t>18201097617</t>
-  </si>
-  <si>
-    <t>山东德州</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>16:37:19 2019-01-31</t>
+    <t>冯颖</t>
+  </si>
+  <si>
+    <t>18201098888</t>
+  </si>
+  <si>
+    <t>山东德州德城区</t>
+  </si>
+  <si>
+    <t>小粉刷</t>
+  </si>
+  <si>
+    <t>17:56:26 2019-02-01</t>
   </si>
   <si>
     <t>青年</t>
   </si>
   <si>
-    <t>16:37:15 2019-01-31</t>
-  </si>
-  <si>
-    <t>16:37:12 2019-01-31</t>
-  </si>
-  <si>
-    <t>16:29:50 2019-01-31</t>
-  </si>
-  <si>
-    <t>.soul</t>
-  </si>
-  <si>
-    <t>16:29:46 2019-01-31</t>
-  </si>
-  <si>
-    <t>16:29:42 2019-01-31</t>
-  </si>
-  <si>
-    <t>15:32:18 2019-01-31</t>
-  </si>
-  <si>
-    <t>15:32:15 2019-01-31</t>
-  </si>
-  <si>
-    <t>冯颖</t>
-  </si>
-  <si>
-    <t>18363250105</t>
-  </si>
-  <si>
-    <t>山东德州黄河涯镇</t>
-  </si>
-  <si>
-    <t>白米</t>
-  </si>
-  <si>
-    <t>14:49:03 2019-01-31</t>
-  </si>
-  <si>
-    <t>口红</t>
-  </si>
-  <si>
-    <t>眼霜</t>
-  </si>
-  <si>
-    <t>28天</t>
+    <t>素颜霜</t>
+  </si>
+  <si>
+    <t>17:56:25 2019-02-01</t>
+  </si>
+  <si>
+    <t>17:56:24 2019-02-01</t>
+  </si>
+  <si>
+    <t>17:56:23 2019-02-01</t>
+  </si>
+  <si>
+    <t>17:56:22 2019-02-01</t>
   </si>
 </sst>
 </file>
@@ -114,39 +82,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color theme="0"/>
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
@@ -157,8 +105,15 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -167,7 +122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
@@ -175,8 +130,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -185,17 +145,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -214,25 +174,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0"/>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="20" name="输入" xfId="1"/>
-    <cellStyle builtinId="10" name="注释" xfId="2"/>
-    <cellStyle builtinId="10" hidden="0" name="Note" xfId="3"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="23" hidden="0" name="Check Cell" xfId="1"/>
+    <cellStyle builtinId="10" hidden="0" name="Note" xfId="2"/>
+    <cellStyle builtinId="20" hidden="0" name="Input" xfId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -527,15 +501,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,328 +538,241 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="3" spans="1:9"/>
-    <row customHeight="1" ht="14.25" r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s"/>
+      <c r="B3" s="2" t="s"/>
+      <c r="C3" s="2" t="s"/>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s"/>
+      <c r="H3" s="2" t="s"/>
+      <c r="I3" s="2" t="s"/>
+    </row>
+    <row r="4" spans="1:9"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="E5" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="E6" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+    </row>
+    <row r="7" spans="1:9"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="5" spans="1:9"/>
-    <row customHeight="1" ht="14.25" r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:9"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="E11" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:9"/>
-    <row customHeight="1" ht="14.25" r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+    </row>
+    <row r="13" spans="1:9"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="9" spans="1:9"/>
-    <row customHeight="1" ht="14.25" r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="11" spans="1:9"/>
-    <row customHeight="1" ht="14.25" r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="13" spans="1:9"/>
-    <row customHeight="1" ht="14.25" r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="15" spans="1:9"/>
-    <row customHeight="1" ht="14.25" r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="17" spans="1:9"/>
-    <row customHeight="1" ht="14.25" r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="19" spans="1:9">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="20" spans="1:9">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="21" spans="1:9">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>